--- a/REGULAR/1-RETIRED/COMPULSORY RETIREMENT/VILLAVIRAY, MA. CANDELARIA.xlsx
+++ b/REGULAR/1-RETIRED/COMPULSORY RETIREMENT/VILLAVIRAY, MA. CANDELARIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\1-RETIRED\COMPULSORY RETIREMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\1-RETIRED\COMPULSORY RETIREMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0459B104-450D-498F-8859-F58FD56B6E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -636,9 +637,6 @@
   </si>
   <si>
     <t>NURSE III</t>
-  </si>
-  <si>
-    <t>PICNIC GROVE</t>
   </si>
   <si>
     <t xml:space="preserve"> *********************NOTHING FOLLOWS***********************</t>
@@ -665,11 +663,14 @@
   <si>
     <t>TOTAL SL = 539.958</t>
   </si>
+  <si>
+    <t>CHO DETAILED PICNIC GROVE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -936,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1084,6 +1085,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1117,26 +1139,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,7 +1402,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1415,26 +1419,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K387" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K387"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K387" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K387" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1741,97 +1745,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4200" topLeftCell="A349" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="G365" sqref="G365"/>
+      <pane ySplit="4200" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="M244" sqref="M244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" s="53"/>
+      <c r="F4" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="69"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1839,7 +1843,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1852,24 +1856,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1904,14 +1908,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="68">
+      <c r="E9" s="57">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
         <v>373.45999999999992</v>
       </c>
@@ -1921,14 +1925,14 @@
         <v/>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="68">
+      <c r="I9" s="57">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
         <v>539.95799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="20" t="s">
         <v>63</v>
@@ -1950,7 +1954,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="20" t="s">
         <v>64</v>
@@ -1968,7 +1972,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>65</v>
       </c>
@@ -1990,7 +1994,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36372</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36403</v>
       </c>
@@ -2052,7 +2056,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>36433</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>72</v>
@@ -2110,7 +2114,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36464</v>
       </c>
@@ -2140,7 +2144,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>36494</v>
       </c>
@@ -2170,7 +2174,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36525</v>
       </c>
@@ -2202,7 +2206,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>77</v>
@@ -2228,7 +2232,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>78</v>
       </c>
@@ -2252,7 +2256,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36556</v>
       </c>
@@ -2282,7 +2286,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>36585</v>
       </c>
@@ -2312,7 +2316,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>36616</v>
       </c>
@@ -2338,7 +2342,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36646</v>
       </c>
@@ -2364,7 +2368,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36677</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36707</v>
       </c>
@@ -2422,7 +2426,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36738</v>
       </c>
@@ -2448,7 +2452,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36769</v>
       </c>
@@ -2474,7 +2478,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>36799</v>
       </c>
@@ -2500,7 +2504,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36830</v>
       </c>
@@ -2526,7 +2530,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36860</v>
       </c>
@@ -2552,7 +2556,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36891</v>
       </c>
@@ -2578,7 +2582,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>82</v>
       </c>
@@ -2602,7 +2606,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36922</v>
       </c>
@@ -2628,7 +2632,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36950</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36981</v>
       </c>
@@ -2686,7 +2690,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>37011</v>
       </c>
@@ -2712,7 +2716,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>37042</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>70</v>
@@ -2772,7 +2776,7 @@
         <v>37231</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>37072</v>
       </c>
@@ -2798,7 +2802,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>37103</v>
       </c>
@@ -2824,7 +2828,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>37134</v>
       </c>
@@ -2850,7 +2854,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>37164</v>
       </c>
@@ -2876,7 +2880,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>37195</v>
       </c>
@@ -2902,7 +2906,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>37225</v>
       </c>
@@ -2928,7 +2932,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>37256</v>
       </c>
@@ -2960,7 +2964,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>87</v>
       </c>
@@ -2984,7 +2988,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>37287</v>
       </c>
@@ -3010,7 +3014,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>37315</v>
       </c>
@@ -3036,7 +3040,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>37346</v>
       </c>
@@ -3062,7 +3066,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>37376</v>
       </c>
@@ -3088,7 +3092,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>37407</v>
       </c>
@@ -3114,7 +3118,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>37437</v>
       </c>
@@ -3140,7 +3144,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>37468</v>
       </c>
@@ -3170,7 +3174,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>37499</v>
       </c>
@@ -3196,7 +3200,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>37529</v>
       </c>
@@ -3222,7 +3226,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>37560</v>
       </c>
@@ -3248,7 +3252,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>37590</v>
       </c>
@@ -3280,7 +3284,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37621</v>
       </c>
@@ -3306,7 +3310,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>90</v>
       </c>
@@ -3330,7 +3334,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>37652</v>
       </c>
@@ -3356,7 +3360,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>37680</v>
       </c>
@@ -3382,7 +3386,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37711</v>
       </c>
@@ -3414,7 +3418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>37741</v>
       </c>
@@ -3446,7 +3450,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37772</v>
       </c>
@@ -3478,7 +3482,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37802</v>
       </c>
@@ -3504,7 +3508,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37833</v>
       </c>
@@ -3530,7 +3534,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>37864</v>
       </c>
@@ -3556,7 +3560,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>37894</v>
       </c>
@@ -3582,7 +3586,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>37925</v>
       </c>
@@ -3608,7 +3612,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37955</v>
       </c>
@@ -3634,7 +3638,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>37986</v>
       </c>
@@ -3664,7 +3668,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="47" t="s">
         <v>95</v>
       </c>
@@ -3688,7 +3692,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>38017</v>
       </c>
@@ -3714,7 +3718,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>38046</v>
       </c>
@@ -3740,7 +3744,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>38077</v>
       </c>
@@ -3766,7 +3770,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>38107</v>
       </c>
@@ -3792,7 +3796,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>38138</v>
       </c>
@@ -3824,7 +3828,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>38168</v>
       </c>
@@ -3856,7 +3860,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>38199</v>
       </c>
@@ -3882,7 +3886,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>38230</v>
       </c>
@@ -3908,7 +3912,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>38260</v>
       </c>
@@ -3940,7 +3944,7 @@
         <v>38300</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>38291</v>
       </c>
@@ -3972,7 +3976,7 @@
         <v>38270</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>38321</v>
       </c>
@@ -4004,7 +4008,7 @@
         <v>38283</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>38352</v>
       </c>
@@ -4036,7 +4040,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>47</v>
@@ -4062,7 +4066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="47" t="s">
         <v>101</v>
       </c>
@@ -4086,7 +4090,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>38383</v>
       </c>
@@ -4116,7 +4120,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>38411</v>
       </c>
@@ -4146,7 +4150,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>38442</v>
       </c>
@@ -4176,7 +4180,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>38472</v>
       </c>
@@ -4206,7 +4210,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>38503</v>
       </c>
@@ -4232,7 +4236,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>38533</v>
       </c>
@@ -4258,7 +4262,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>38564</v>
       </c>
@@ -4288,7 +4292,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>38595</v>
       </c>
@@ -4320,7 +4324,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>108</v>
@@ -4346,7 +4350,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>38625</v>
       </c>
@@ -4372,7 +4376,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>38656</v>
       </c>
@@ -4398,7 +4402,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>38686</v>
       </c>
@@ -4424,7 +4428,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>38717</v>
       </c>
@@ -4450,7 +4454,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="47" t="s">
         <v>109</v>
       </c>
@@ -4474,7 +4478,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>38748</v>
       </c>
@@ -4504,7 +4508,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4530,7 +4534,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>38776</v>
       </c>
@@ -4560,7 +4564,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>38807</v>
       </c>
@@ -4590,7 +4594,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>38837</v>
       </c>
@@ -4616,7 +4620,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>38868</v>
       </c>
@@ -4646,7 +4650,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>115</v>
@@ -4674,7 +4678,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>38898</v>
       </c>
@@ -4704,7 +4708,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>38929</v>
       </c>
@@ -4734,7 +4738,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>38960</v>
       </c>
@@ -4764,7 +4768,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>38990</v>
       </c>
@@ -4790,7 +4794,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>39021</v>
       </c>
@@ -4820,7 +4824,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>39051</v>
       </c>
@@ -4848,7 +4852,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>129</v>
@@ -4874,7 +4878,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>105</v>
@@ -4900,7 +4904,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>39082</v>
       </c>
@@ -4930,7 +4934,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
         <v>124</v>
       </c>
@@ -4954,7 +4958,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>39113</v>
       </c>
@@ -4984,7 +4988,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>39141</v>
       </c>
@@ -5010,7 +5014,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>39172</v>
       </c>
@@ -5042,7 +5046,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>47</v>
@@ -5070,7 +5074,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>129</v>
@@ -5096,7 +5100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>39202</v>
       </c>
@@ -5122,7 +5126,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>39233</v>
       </c>
@@ -5148,7 +5152,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>39263</v>
       </c>
@@ -5174,7 +5178,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>39294</v>
       </c>
@@ -5204,7 +5208,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>98</v>
@@ -5230,7 +5234,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>39325</v>
       </c>
@@ -5256,7 +5260,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>39355</v>
       </c>
@@ -5282,7 +5286,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>39386</v>
       </c>
@@ -5308,7 +5312,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>39416</v>
       </c>
@@ -5334,7 +5338,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>39447</v>
       </c>
@@ -5360,7 +5364,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="47" t="s">
         <v>132</v>
       </c>
@@ -5384,7 +5388,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>39478</v>
       </c>
@@ -5410,7 +5414,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>39507</v>
       </c>
@@ -5436,7 +5440,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>39538</v>
       </c>
@@ -5462,7 +5466,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>39568</v>
       </c>
@@ -5492,7 +5496,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>39599</v>
       </c>
@@ -5518,7 +5522,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>39629</v>
       </c>
@@ -5544,7 +5548,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>39660</v>
       </c>
@@ -5570,7 +5574,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>39691</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>39721</v>
       </c>
@@ -5632,7 +5636,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>39752</v>
       </c>
@@ -5658,7 +5662,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>39782</v>
       </c>
@@ -5684,7 +5688,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>39813</v>
       </c>
@@ -5710,7 +5714,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="47" t="s">
         <v>136</v>
       </c>
@@ -5734,7 +5738,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>39844</v>
       </c>
@@ -5764,7 +5768,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>39872</v>
       </c>
@@ -5794,7 +5798,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>39903</v>
       </c>
@@ -5824,7 +5828,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>47</v>
@@ -5850,7 +5854,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>138</v>
@@ -5876,7 +5880,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>39933</v>
       </c>
@@ -5908,7 +5912,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>144</v>
@@ -5934,7 +5938,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>39964</v>
       </c>
@@ -5960,7 +5964,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>39994</v>
       </c>
@@ -5986,7 +5990,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>40025</v>
       </c>
@@ -6012,7 +6016,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>40056</v>
       </c>
@@ -6038,7 +6042,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>40086</v>
       </c>
@@ -6064,7 +6068,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>40117</v>
       </c>
@@ -6090,7 +6094,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>40147</v>
       </c>
@@ -6116,7 +6120,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>40178</v>
       </c>
@@ -6146,7 +6150,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="47" t="s">
         <v>146</v>
       </c>
@@ -6170,7 +6174,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>40209</v>
       </c>
@@ -6200,7 +6204,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>40237</v>
       </c>
@@ -6226,7 +6230,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>40268</v>
       </c>
@@ -6252,7 +6256,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>40298</v>
       </c>
@@ -6282,7 +6286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>77</v>
@@ -6308,7 +6312,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>40329</v>
       </c>
@@ -6338,7 +6342,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>40359</v>
       </c>
@@ -6368,7 +6372,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>40390</v>
       </c>
@@ -6398,7 +6402,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>40421</v>
       </c>
@@ -6428,7 +6432,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>151</v>
@@ -6456,7 +6460,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>149</v>
@@ -6482,7 +6486,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>40451</v>
       </c>
@@ -6514,7 +6518,7 @@
         <v>40399</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>40482</v>
       </c>
@@ -6544,7 +6548,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>40512</v>
       </c>
@@ -6570,7 +6574,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>40543</v>
       </c>
@@ -6596,7 +6600,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="47" t="s">
         <v>153</v>
       </c>
@@ -6620,7 +6624,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>40574</v>
       </c>
@@ -6650,7 +6654,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>40602</v>
       </c>
@@ -6680,7 +6684,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>40633</v>
       </c>
@@ -6706,7 +6710,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>40663</v>
       </c>
@@ -6732,7 +6736,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>40694</v>
       </c>
@@ -6758,7 +6762,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>40724</v>
       </c>
@@ -6790,7 +6794,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>66</v>
@@ -6818,7 +6822,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>53</v>
@@ -6846,7 +6850,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>40755</v>
       </c>
@@ -6872,7 +6876,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>40786</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>126</v>
@@ -6932,7 +6936,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>40816</v>
       </c>
@@ -6962,7 +6966,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>40847</v>
       </c>
@@ -6988,7 +6992,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>40877</v>
       </c>
@@ -7018,7 +7022,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>40908</v>
       </c>
@@ -7044,7 +7048,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="47" t="s">
         <v>161</v>
       </c>
@@ -7068,7 +7072,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>40939</v>
       </c>
@@ -7094,7 +7098,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>40968</v>
       </c>
@@ -7120,7 +7124,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>40999</v>
       </c>
@@ -7146,7 +7150,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>41029</v>
       </c>
@@ -7172,7 +7176,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>41060</v>
       </c>
@@ -7198,7 +7202,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>41090</v>
       </c>
@@ -7224,7 +7228,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>41121</v>
       </c>
@@ -7256,7 +7260,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>41152</v>
       </c>
@@ -7282,7 +7286,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>41182</v>
       </c>
@@ -7312,7 +7316,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>41213</v>
       </c>
@@ -7338,7 +7342,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>41243</v>
       </c>
@@ -7364,7 +7368,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>41274</v>
       </c>
@@ -7390,7 +7394,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="47" t="s">
         <v>165</v>
       </c>
@@ -7414,7 +7418,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>41305</v>
       </c>
@@ -7440,7 +7444,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>41333</v>
       </c>
@@ -7466,7 +7470,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>41364</v>
       </c>
@@ -7492,7 +7496,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>41394</v>
       </c>
@@ -7518,7 +7522,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>41425</v>
       </c>
@@ -7544,7 +7548,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>41455</v>
       </c>
@@ -7570,7 +7574,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>41486</v>
       </c>
@@ -7596,7 +7600,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>41517</v>
       </c>
@@ -7628,7 +7632,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>41547</v>
       </c>
@@ -7654,7 +7658,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>41578</v>
       </c>
@@ -7680,7 +7684,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>41608</v>
       </c>
@@ -7710,7 +7714,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>41639</v>
       </c>
@@ -7736,7 +7740,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="47" t="s">
         <v>167</v>
       </c>
@@ -7760,7 +7764,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>41670</v>
       </c>
@@ -7786,7 +7790,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>41698</v>
       </c>
@@ -7812,7 +7816,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>41729</v>
       </c>
@@ -7838,7 +7842,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>41759</v>
       </c>
@@ -7864,7 +7868,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>41790</v>
       </c>
@@ -7896,7 +7900,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>41820</v>
       </c>
@@ -7922,7 +7926,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>41851</v>
       </c>
@@ -7948,7 +7952,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>41882</v>
       </c>
@@ -7974,7 +7978,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>41912</v>
       </c>
@@ -8000,7 +8004,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>41943</v>
       </c>
@@ -8026,7 +8030,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>41973</v>
       </c>
@@ -8052,7 +8056,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>42004</v>
       </c>
@@ -8084,7 +8088,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="47" t="s">
         <v>164</v>
       </c>
@@ -8108,7 +8112,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>42035</v>
       </c>
@@ -8134,7 +8138,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>42063</v>
       </c>
@@ -8160,7 +8164,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>42094</v>
       </c>
@@ -8192,7 +8196,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>172</v>
@@ -8218,7 +8222,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>42124</v>
       </c>
@@ -8248,7 +8252,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>42155</v>
       </c>
@@ -8278,7 +8282,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>42185</v>
       </c>
@@ -8304,7 +8308,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>42216</v>
       </c>
@@ -8330,7 +8334,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>42247</v>
       </c>
@@ -8356,7 +8360,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>42277</v>
       </c>
@@ -8382,7 +8386,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>42308</v>
       </c>
@@ -8408,7 +8412,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>42338</v>
       </c>
@@ -8434,7 +8438,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>42369</v>
       </c>
@@ -8464,7 +8468,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>176</v>
@@ -8490,7 +8494,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="47" t="s">
         <v>177</v>
       </c>
@@ -8514,7 +8518,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>42400</v>
       </c>
@@ -8544,7 +8548,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>42429</v>
       </c>
@@ -8574,7 +8578,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>42460</v>
       </c>
@@ -8604,7 +8608,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>42490</v>
       </c>
@@ -8630,7 +8634,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>42521</v>
       </c>
@@ -8656,7 +8660,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>42551</v>
       </c>
@@ -8682,7 +8686,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>42582</v>
       </c>
@@ -8708,7 +8712,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>42613</v>
       </c>
@@ -8734,7 +8738,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>42643</v>
       </c>
@@ -8766,7 +8770,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>42674</v>
       </c>
@@ -8792,7 +8796,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>42704</v>
       </c>
@@ -8818,7 +8822,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>42735</v>
       </c>
@@ -8844,7 +8848,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="47" t="s">
         <v>182</v>
       </c>
@@ -8868,7 +8872,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>42766</v>
       </c>
@@ -8894,7 +8898,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>42794</v>
       </c>
@@ -8920,7 +8924,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>42825</v>
       </c>
@@ -8946,7 +8950,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>42855</v>
       </c>
@@ -8972,7 +8976,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>42886</v>
       </c>
@@ -8998,7 +9002,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>42916</v>
       </c>
@@ -9024,7 +9028,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>42947</v>
       </c>
@@ -9050,7 +9054,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>42978</v>
       </c>
@@ -9076,7 +9080,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>43008</v>
       </c>
@@ -9102,7 +9106,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>43039</v>
       </c>
@@ -9128,7 +9132,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>43069</v>
       </c>
@@ -9158,7 +9162,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>48</v>
@@ -9186,7 +9190,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>43100</v>
       </c>
@@ -9212,7 +9216,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="47" t="s">
         <v>43</v>
       </c>
@@ -9236,7 +9240,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>43101</v>
       </c>
@@ -9262,7 +9266,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>43132</v>
       </c>
@@ -9288,7 +9292,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>43160</v>
       </c>
@@ -9314,7 +9318,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>43191</v>
       </c>
@@ -9340,7 +9344,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>43221</v>
       </c>
@@ -9366,7 +9370,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>43252</v>
       </c>
@@ -9392,7 +9396,7 @@
       <c r="J283" s="12"/>
       <c r="K283" s="15"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>43282</v>
       </c>
@@ -9418,7 +9422,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>43313</v>
       </c>
@@ -9444,7 +9448,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>43344</v>
       </c>
@@ -9470,7 +9474,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>43374</v>
       </c>
@@ -9496,7 +9500,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>43405</v>
       </c>
@@ -9522,7 +9526,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>43435</v>
       </c>
@@ -9554,7 +9558,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="47" t="s">
         <v>44</v>
       </c>
@@ -9578,7 +9582,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>43466</v>
       </c>
@@ -9608,7 +9612,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>43497</v>
       </c>
@@ -9634,7 +9638,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>43525</v>
       </c>
@@ -9660,7 +9664,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>43556</v>
       </c>
@@ -9686,7 +9690,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>43586</v>
       </c>
@@ -9712,7 +9716,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>43617</v>
       </c>
@@ -9738,7 +9742,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>43647</v>
       </c>
@@ -9764,7 +9768,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>43678</v>
       </c>
@@ -9790,7 +9794,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>43709</v>
       </c>
@@ -9816,7 +9820,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>43739</v>
       </c>
@@ -9842,7 +9846,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>43770</v>
       </c>
@@ -9874,7 +9878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>43800</v>
       </c>
@@ -9906,7 +9910,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="47" t="s">
         <v>45</v>
       </c>
@@ -9930,7 +9934,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>43831</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>53</v>
@@ -9985,7 +9989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>43862</v>
       </c>
@@ -10011,7 +10015,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>43891</v>
       </c>
@@ -10037,7 +10041,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>43922</v>
       </c>
@@ -10063,7 +10067,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>43952</v>
       </c>
@@ -10089,7 +10093,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>43983</v>
       </c>
@@ -10115,7 +10119,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>44013</v>
       </c>
@@ -10141,7 +10145,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>44044</v>
       </c>
@@ -10167,7 +10171,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>44075</v>
       </c>
@@ -10193,7 +10197,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>44105</v>
       </c>
@@ -10219,7 +10223,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>44136</v>
       </c>
@@ -10249,7 +10253,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>48</v>
@@ -10274,7 +10278,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>44166</v>
       </c>
@@ -10300,7 +10304,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="47" t="s">
         <v>57</v>
       </c>
@@ -10324,7 +10328,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>44197</v>
       </c>
@@ -10350,7 +10354,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>44228</v>
       </c>
@@ -10376,7 +10380,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>44256</v>
       </c>
@@ -10402,7 +10406,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>44287</v>
       </c>
@@ -10428,7 +10432,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>44317</v>
       </c>
@@ -10454,7 +10458,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>44348</v>
       </c>
@@ -10480,7 +10484,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>44378</v>
       </c>
@@ -10506,7 +10510,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>44409</v>
       </c>
@@ -10532,7 +10536,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>44440</v>
       </c>
@@ -10558,7 +10562,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>44470</v>
       </c>
@@ -10584,7 +10588,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>44501</v>
       </c>
@@ -10610,7 +10614,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>44531</v>
       </c>
@@ -10640,7 +10644,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="47" t="s">
         <v>58</v>
       </c>
@@ -10664,7 +10668,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>44562</v>
       </c>
@@ -10690,7 +10694,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>44593</v>
       </c>
@@ -10716,7 +10720,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>44621</v>
       </c>
@@ -10746,7 +10750,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>44652</v>
       </c>
@@ -10776,7 +10780,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>44682</v>
       </c>
@@ -10806,7 +10810,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>44713</v>
       </c>
@@ -10836,7 +10840,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>44743</v>
       </c>
@@ -10866,7 +10870,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>44774</v>
       </c>
@@ -10896,7 +10900,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>44805</v>
       </c>
@@ -10926,7 +10930,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>44835</v>
       </c>
@@ -10956,7 +10960,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>44866</v>
       </c>
@@ -10986,7 +10990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>48</v>
@@ -11014,7 +11018,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>46</v>
@@ -11042,7 +11046,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>44896</v>
       </c>
@@ -11072,7 +11076,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="47" t="s">
         <v>189</v>
       </c>
@@ -11096,7 +11100,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>44957</v>
       </c>
@@ -11122,7 +11126,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>44985</v>
       </c>
@@ -11148,7 +11152,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>45016</v>
       </c>
@@ -11174,7 +11178,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>45046</v>
       </c>
@@ -11200,7 +11204,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>45077</v>
       </c>
@@ -11226,7 +11230,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>45107</v>
       </c>
@@ -11252,7 +11256,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>45138</v>
       </c>
@@ -11278,7 +11282,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>45169</v>
       </c>
@@ -11310,7 +11314,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>45199</v>
       </c>
@@ -11336,7 +11340,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>45230</v>
       </c>
@@ -11362,7 +11366,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>45260</v>
       </c>
@@ -11388,7 +11392,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>45291</v>
       </c>
@@ -11418,7 +11422,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="47" t="s">
         <v>199</v>
       </c>
@@ -11442,7 +11446,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>45322</v>
       </c>
@@ -11468,7 +11472,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>45324</v>
       </c>
@@ -11494,14 +11498,14 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A362" s="62"/>
-      <c r="B362" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="C362" s="64"/>
-      <c r="D362" s="65"/>
-      <c r="E362" s="66"/>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" s="51"/>
+      <c r="B362" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C362" s="53"/>
+      <c r="D362" s="54"/>
+      <c r="E362" s="55"/>
       <c r="F362" s="11"/>
       <c r="G362" s="13"/>
       <c r="H362" s="11"/>
@@ -11509,41 +11513,41 @@
       <c r="J362" s="11"/>
       <c r="K362" s="11"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="62"/>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="51"/>
       <c r="B363" s="11"/>
       <c r="C363" s="13"/>
-      <c r="D363" s="67" t="s">
-        <v>204</v>
+      <c r="D363" s="56" t="s">
+        <v>203</v>
       </c>
       <c r="E363" s="9"/>
       <c r="F363" s="11"/>
       <c r="G363" s="13"/>
-      <c r="H363" s="67" t="s">
-        <v>205</v>
+      <c r="H363" s="56" t="s">
+        <v>204</v>
       </c>
       <c r="I363" s="9"/>
       <c r="J363" s="11"/>
       <c r="K363" s="11"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="62"/>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="51"/>
       <c r="B364" s="11"/>
       <c r="C364" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D364" s="11"/>
       <c r="E364" s="9"/>
       <c r="F364" s="11"/>
-      <c r="G364" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="H364" s="65"/>
-      <c r="I364" s="66"/>
-      <c r="J364" s="65"/>
-      <c r="K364" s="65"/>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G364" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="H364" s="54"/>
+      <c r="I364" s="55"/>
+      <c r="J364" s="54"/>
+      <c r="K364" s="54"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -11559,7 +11563,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -11575,7 +11579,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -11591,7 +11595,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -11607,7 +11611,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -11623,7 +11627,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -11639,7 +11643,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11655,7 +11659,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -11671,7 +11675,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -11687,7 +11691,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -11703,7 +11707,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -11719,7 +11723,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -11735,7 +11739,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -11751,7 +11755,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -11767,7 +11771,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -11783,7 +11787,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -11799,7 +11803,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -11815,7 +11819,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -11831,7 +11835,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -11847,7 +11851,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -11863,7 +11867,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -11879,7 +11883,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11895,7 +11899,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -11927,10 +11931,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11953,41 +11957,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12016,7 +12020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>167.35599999999999</v>
       </c>
@@ -12048,17 +12052,17 @@
         <v>0.12499999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>198</v>
       </c>
@@ -12075,14 +12079,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
         <v>913.41799999999989</v>
@@ -12113,7 +12117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12139,7 +12143,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12165,7 +12169,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12191,7 +12195,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12217,7 +12221,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12243,7 +12247,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12269,7 +12273,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12295,7 +12299,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12315,7 +12319,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12335,7 +12339,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12355,7 +12359,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12376,7 +12380,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12397,7 +12401,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12418,7 +12422,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12439,7 +12443,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12460,7 +12464,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12481,7 +12485,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12502,7 +12506,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12523,7 +12527,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12544,7 +12548,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12565,7 +12569,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12586,7 +12590,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12607,7 +12611,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12628,7 +12632,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12649,7 +12653,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12670,7 +12674,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12691,7 +12695,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12712,7 +12716,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12733,7 +12737,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12754,7 +12758,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12775,7 +12779,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12784,7 +12788,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12793,7 +12797,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12802,7 +12806,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12811,7 +12815,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12820,7 +12824,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12829,7 +12833,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12838,7 +12842,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12847,7 +12851,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12856,7 +12860,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12865,7 +12869,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12874,7 +12878,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12883,7 +12887,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12892,7 +12896,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12901,7 +12905,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12910,7 +12914,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12919,7 +12923,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12928,7 +12932,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12937,7 +12941,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12946,7 +12950,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12955,7 +12959,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12964,7 +12968,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12973,7 +12977,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12982,7 +12986,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12991,7 +12995,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13000,7 +13004,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13009,7 +13013,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13018,7 +13022,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13027,7 +13031,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13036,7 +13040,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
